--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（A600）勤務状況詳細画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（A600）勤務状況詳細画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E75773D-9180-4994-8E1F-87FB220C76B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E5496-BB34-4271-B812-86663B77A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -3235,117 +3235,117 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3550,17 +3550,17 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3953,8 +3953,8 @@
       <xdr:rowOff>239485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>32658</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>166254</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
@@ -3971,8 +3971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1480458" y="8860971"/>
-          <a:ext cx="11440886" cy="4615543"/>
+          <a:off x="1487385" y="8926285"/>
+          <a:ext cx="11369633" cy="4634345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6195,10 +6195,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>838199</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>65313</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="412570" cy="236220"/>
     <xdr:sp macro="" textlink="">
@@ -6214,7 +6214,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4952999" y="7870372"/>
+          <a:off x="8120742" y="7826829"/>
           <a:ext cx="412570" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7794,8 +7794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32BC060-26D0-4541-967C-77B6A4F31875}">
   <dimension ref="A1:CB56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BY43" sqref="BY42:BY43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8042,7 +8042,7 @@
       <c r="AK3" s="208"/>
       <c r="AL3" s="209">
         <f ca="1">NOW()</f>
-        <v>45450.676878356484</v>
+        <v>45453.365032986112</v>
       </c>
       <c r="AM3" s="210"/>
       <c r="AN3" s="210"/>
@@ -8490,15 +8490,15 @@
     <row r="13" spans="1:80" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="66"/>
       <c r="D13" s="151"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
       <c r="M13" s="140"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="183"/>
-      <c r="R13" s="183"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
       <c r="S13" s="140"/>
       <c r="T13" s="140"/>
       <c r="U13" s="139"/>
@@ -8524,16 +8524,16 @@
       <c r="D14" s="151"/>
       <c r="I14" s="2"/>
       <c r="J14" s="141"/>
-      <c r="K14" s="184" t="s">
+      <c r="K14" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="184"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
       <c r="S14" s="57"/>
       <c r="T14" s="57"/>
       <c r="U14" s="54"/>
@@ -8616,16 +8616,16 @@
       <c r="Q19" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
       <c r="V19" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="157"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="170"/>
+      <c r="Y19" s="156"/>
       <c r="Z19" s="49"/>
       <c r="AA19" s="49"/>
       <c r="AB19" s="49"/>
@@ -8640,50 +8640,50 @@
     <row r="20" spans="1:78" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="66"/>
       <c r="D20" s="151"/>
-      <c r="J20" s="178" t="s">
+      <c r="J20" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="179"/>
-      <c r="L20" s="181" t="s">
+      <c r="K20" s="172"/>
+      <c r="L20" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="182"/>
-      <c r="N20" s="178" t="s">
+      <c r="M20" s="175"/>
+      <c r="N20" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="180"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="178" t="s">
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="180"/>
-      <c r="S20" s="179"/>
-      <c r="T20" s="178" t="s">
+      <c r="R20" s="173"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="U20" s="179"/>
-      <c r="V20" s="178" t="s">
+      <c r="U20" s="172"/>
+      <c r="V20" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="179"/>
-      <c r="X20" s="178" t="s">
+      <c r="W20" s="172"/>
+      <c r="X20" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="178" t="s">
+      <c r="Y20" s="172"/>
+      <c r="Z20" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="179"/>
-      <c r="AB20" s="178" t="s">
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="AC20" s="180"/>
-      <c r="AD20" s="180"/>
-      <c r="AE20" s="179"/>
-      <c r="AF20" s="178" t="s">
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="AG20" s="179"/>
+      <c r="AG20" s="172"/>
       <c r="AL20" s="40"/>
       <c r="AS20" s="68"/>
     </row>
@@ -8693,43 +8693,43 @@
       <c r="J21" s="155">
         <v>1</v>
       </c>
-      <c r="K21" s="157"/>
+      <c r="K21" s="156"/>
       <c r="L21" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="157"/>
+      <c r="M21" s="156"/>
       <c r="N21" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="175">
+      <c r="O21" s="170"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="167">
         <v>0.375</v>
       </c>
-      <c r="R21" s="177"/>
-      <c r="S21" s="176"/>
-      <c r="T21" s="175">
+      <c r="R21" s="168"/>
+      <c r="S21" s="169"/>
+      <c r="T21" s="167">
         <v>0.75</v>
       </c>
-      <c r="U21" s="176"/>
-      <c r="V21" s="175">
+      <c r="U21" s="169"/>
+      <c r="V21" s="167">
         <v>0.37361111111111112</v>
       </c>
-      <c r="W21" s="176"/>
-      <c r="X21" s="175">
+      <c r="W21" s="169"/>
+      <c r="X21" s="167">
         <v>0.75069444444444444</v>
       </c>
-      <c r="Y21" s="176"/>
-      <c r="Z21" s="175">
+      <c r="Y21" s="169"/>
+      <c r="Z21" s="167">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AA21" s="176"/>
-      <c r="AB21" s="175">
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="167">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC21" s="177"/>
-      <c r="AD21" s="177"/>
-      <c r="AE21" s="176"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="169"/>
       <c r="AF21" s="58"/>
       <c r="AG21" s="59"/>
       <c r="AL21" s="40"/>
@@ -8769,25 +8769,25 @@
       <c r="J25" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="188" t="s">
+      <c r="L25" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="189"/>
-      <c r="N25" s="189"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="188"/>
       <c r="O25" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Y25" s="164" t="s">
+      <c r="Y25" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="159" t="s">
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="AB25" s="159"/>
-      <c r="AC25" s="159"/>
-      <c r="AD25" s="159"/>
-      <c r="AE25" s="160"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="158"/>
+      <c r="AD25" s="158"/>
+      <c r="AE25" s="159"/>
       <c r="AL25" s="40"/>
       <c r="AS25" s="68"/>
     </row>
@@ -8797,19 +8797,19 @@
       <c r="J26" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="185">
+      <c r="L26" s="184">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="187"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="167"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="163"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="186"/>
+      <c r="Y26" s="165"/>
+      <c r="Z26" s="166"/>
+      <c r="AA26" s="161"/>
+      <c r="AB26" s="161"/>
+      <c r="AC26" s="161"/>
+      <c r="AD26" s="161"/>
+      <c r="AE26" s="162"/>
       <c r="AL26" s="40"/>
       <c r="AS26" s="68"/>
     </row>
@@ -8819,12 +8819,12 @@
       <c r="J27" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="175">
+      <c r="L27" s="167">
         <v>0.75</v>
       </c>
-      <c r="M27" s="177"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="176"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="169"/>
       <c r="AL27" s="40"/>
       <c r="AS27" s="68"/>
     </row>
@@ -8834,19 +8834,19 @@
       <c r="J28" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="185">
+      <c r="L28" s="184">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M28" s="186"/>
-      <c r="N28" s="186"/>
-      <c r="O28" s="187"/>
-      <c r="R28" s="169" t="s">
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="186"/>
+      <c r="Y28" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="171"/>
+      <c r="Z28" s="179"/>
+      <c r="AA28" s="179"/>
+      <c r="AB28" s="179"/>
+      <c r="AC28" s="180"/>
       <c r="AL28" s="40"/>
       <c r="AS28" s="68"/>
     </row>
@@ -8856,17 +8856,17 @@
       <c r="J29" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="188" t="s">
+      <c r="L29" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="189"/>
-      <c r="N29" s="189"/>
-      <c r="O29" s="190"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="174"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="189"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="182"/>
+      <c r="AB29" s="182"/>
+      <c r="AC29" s="183"/>
       <c r="AL29" s="40"/>
       <c r="AS29" s="67"/>
     </row>
@@ -8888,7 +8888,7 @@
       <c r="AL32" s="40"/>
       <c r="AS32" s="67"/>
     </row>
-    <row r="33" spans="1:61" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:61" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="66"/>
       <c r="D33" s="151"/>
       <c r="J33" t="s">
@@ -8897,7 +8897,7 @@
       <c r="AL33" s="40"/>
       <c r="AS33" s="67"/>
     </row>
-    <row r="34" spans="1:61" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:61" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="66"/>
       <c r="D34" s="151"/>
       <c r="AL34" s="40"/>
@@ -8916,16 +8916,16 @@
       <c r="Q35" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="156"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="156"/>
-      <c r="U35" s="156"/>
+      <c r="R35" s="170"/>
+      <c r="S35" s="170"/>
+      <c r="T35" s="170"/>
+      <c r="U35" s="170"/>
       <c r="V35" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="W35" s="156"/>
-      <c r="X35" s="156"/>
-      <c r="Y35" s="157"/>
+      <c r="W35" s="170"/>
+      <c r="X35" s="170"/>
+      <c r="Y35" s="156"/>
       <c r="Z35" s="49"/>
       <c r="AA35" s="49"/>
       <c r="AB35" s="49"/>
@@ -8949,47 +8949,47 @@
       <c r="J36" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="157"/>
+      <c r="K36" s="156"/>
       <c r="L36" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="157"/>
+      <c r="M36" s="156"/>
       <c r="N36" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="156"/>
-      <c r="P36" s="157"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="156"/>
       <c r="Q36" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="R36" s="156"/>
-      <c r="S36" s="157"/>
+      <c r="R36" s="170"/>
+      <c r="S36" s="156"/>
       <c r="T36" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="U36" s="157"/>
+      <c r="U36" s="156"/>
       <c r="V36" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="W36" s="157"/>
+      <c r="W36" s="156"/>
       <c r="X36" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="Y36" s="157"/>
+      <c r="Y36" s="156"/>
       <c r="Z36" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="AA36" s="157"/>
+      <c r="AA36" s="156"/>
       <c r="AB36" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="AC36" s="156"/>
-      <c r="AD36" s="156"/>
-      <c r="AE36" s="157"/>
+      <c r="AC36" s="170"/>
+      <c r="AD36" s="170"/>
+      <c r="AE36" s="156"/>
       <c r="AF36" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="AG36" s="157"/>
+      <c r="AG36" s="156"/>
       <c r="AH36" s="135"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
@@ -9009,43 +9009,43 @@
       <c r="J37" s="155">
         <v>1</v>
       </c>
-      <c r="K37" s="157"/>
+      <c r="K37" s="156"/>
       <c r="L37" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="157"/>
+      <c r="M37" s="156"/>
       <c r="N37" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="156"/>
-      <c r="P37" s="157"/>
-      <c r="Q37" s="175">
+      <c r="O37" s="170"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="167">
         <v>0.375</v>
       </c>
-      <c r="R37" s="177"/>
-      <c r="S37" s="176"/>
-      <c r="T37" s="175">
+      <c r="R37" s="168"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="167">
         <v>0.75</v>
       </c>
-      <c r="U37" s="176"/>
-      <c r="V37" s="175">
+      <c r="U37" s="169"/>
+      <c r="V37" s="167">
         <v>0.37361111111111112</v>
       </c>
-      <c r="W37" s="176"/>
-      <c r="X37" s="175">
+      <c r="W37" s="169"/>
+      <c r="X37" s="167">
         <v>0.75069444444444444</v>
       </c>
-      <c r="Y37" s="176"/>
-      <c r="Z37" s="175">
+      <c r="Y37" s="169"/>
+      <c r="Z37" s="167">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AA37" s="176"/>
-      <c r="AB37" s="175">
+      <c r="AA37" s="169"/>
+      <c r="AB37" s="167">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC37" s="177"/>
-      <c r="AD37" s="177"/>
-      <c r="AE37" s="176"/>
+      <c r="AC37" s="168"/>
+      <c r="AD37" s="168"/>
+      <c r="AE37" s="169"/>
       <c r="AF37" s="58"/>
       <c r="AG37" s="59"/>
       <c r="AH37" s="135"/>
@@ -9082,23 +9082,23 @@
       <c r="J41" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="188" t="s">
+      <c r="L41" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="189"/>
-      <c r="N41" s="189"/>
-      <c r="O41" s="190"/>
-      <c r="Y41" s="164" t="s">
+      <c r="M41" s="188"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="189"/>
+      <c r="Y41" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="Z41" s="165"/>
-      <c r="AA41" s="158" t="s">
+      <c r="Z41" s="164"/>
+      <c r="AA41" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="AB41" s="159"/>
-      <c r="AC41" s="159"/>
-      <c r="AD41" s="159"/>
-      <c r="AE41" s="160"/>
+      <c r="AB41" s="158"/>
+      <c r="AC41" s="158"/>
+      <c r="AD41" s="158"/>
+      <c r="AE41" s="159"/>
       <c r="AL41" s="40"/>
       <c r="AS41" s="68"/>
       <c r="BH41" s="52"/>
@@ -9110,19 +9110,19 @@
       <c r="J42" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="185">
+      <c r="L42" s="184">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M42" s="186"/>
-      <c r="N42" s="186"/>
-      <c r="O42" s="187"/>
-      <c r="Y42" s="166"/>
-      <c r="Z42" s="167"/>
-      <c r="AA42" s="161"/>
-      <c r="AB42" s="162"/>
-      <c r="AC42" s="162"/>
-      <c r="AD42" s="162"/>
-      <c r="AE42" s="163"/>
+      <c r="M42" s="185"/>
+      <c r="N42" s="185"/>
+      <c r="O42" s="186"/>
+      <c r="Y42" s="165"/>
+      <c r="Z42" s="166"/>
+      <c r="AA42" s="160"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
+      <c r="AD42" s="161"/>
+      <c r="AE42" s="162"/>
       <c r="AL42" s="40"/>
       <c r="AS42" s="68"/>
       <c r="BH42" s="52"/>
@@ -9134,12 +9134,12 @@
       <c r="J43" t="s">
         <v>39</v>
       </c>
-      <c r="L43" s="175">
+      <c r="L43" s="167">
         <v>0.75</v>
       </c>
-      <c r="M43" s="177"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="176"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="168"/>
+      <c r="O43" s="169"/>
       <c r="AL43" s="40"/>
       <c r="AS43" s="68"/>
       <c r="BH43" s="52"/>
@@ -9151,26 +9151,26 @@
       <c r="J44" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="185">
+      <c r="L44" s="184">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M44" s="186"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="187"/>
-      <c r="R44" s="169" t="s">
+      <c r="M44" s="185"/>
+      <c r="N44" s="185"/>
+      <c r="O44" s="186"/>
+      <c r="R44" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="S44" s="170"/>
-      <c r="T44" s="170"/>
-      <c r="U44" s="170"/>
-      <c r="V44" s="171"/>
-      <c r="Y44" s="169" t="s">
+      <c r="S44" s="179"/>
+      <c r="T44" s="179"/>
+      <c r="U44" s="179"/>
+      <c r="V44" s="180"/>
+      <c r="Y44" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="Z44" s="170"/>
-      <c r="AA44" s="170"/>
-      <c r="AB44" s="170"/>
-      <c r="AC44" s="171"/>
+      <c r="Z44" s="179"/>
+      <c r="AA44" s="179"/>
+      <c r="AB44" s="179"/>
+      <c r="AC44" s="180"/>
       <c r="AL44" s="40"/>
       <c r="AS44" s="68"/>
       <c r="BH44" s="86"/>
@@ -9182,22 +9182,22 @@
       <c r="J45" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="188" t="s">
+      <c r="L45" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="M45" s="189"/>
-      <c r="N45" s="189"/>
-      <c r="O45" s="190"/>
-      <c r="R45" s="172"/>
-      <c r="S45" s="173"/>
-      <c r="T45" s="173"/>
-      <c r="U45" s="173"/>
-      <c r="V45" s="174"/>
-      <c r="Y45" s="172"/>
-      <c r="Z45" s="173"/>
-      <c r="AA45" s="173"/>
-      <c r="AB45" s="173"/>
-      <c r="AC45" s="174"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="188"/>
+      <c r="O45" s="189"/>
+      <c r="R45" s="181"/>
+      <c r="S45" s="182"/>
+      <c r="T45" s="182"/>
+      <c r="U45" s="182"/>
+      <c r="V45" s="183"/>
+      <c r="Y45" s="181"/>
+      <c r="Z45" s="182"/>
+      <c r="AA45" s="182"/>
+      <c r="AB45" s="182"/>
+      <c r="AC45" s="183"/>
       <c r="AL45" s="40"/>
       <c r="AS45" s="68"/>
       <c r="BH45" s="52"/>
@@ -9218,15 +9218,15 @@
       <c r="S46" s="134"/>
       <c r="T46" s="134"/>
       <c r="U46" s="134"/>
-      <c r="V46" s="168"/>
-      <c r="W46" s="168"/>
-      <c r="X46" s="168"/>
-      <c r="Y46" s="168"/>
+      <c r="V46" s="192"/>
+      <c r="W46" s="192"/>
+      <c r="X46" s="192"/>
+      <c r="Y46" s="192"/>
       <c r="Z46" s="134"/>
       <c r="AA46" s="134"/>
-      <c r="AB46" s="168"/>
-      <c r="AC46" s="168"/>
-      <c r="AD46" s="168"/>
+      <c r="AB46" s="192"/>
+      <c r="AC46" s="192"/>
+      <c r="AD46" s="192"/>
       <c r="AE46" s="134"/>
       <c r="AF46" s="134"/>
       <c r="AG46" s="134"/>
@@ -9250,15 +9250,15 @@
       <c r="S47" s="134"/>
       <c r="T47" s="134"/>
       <c r="U47" s="134"/>
-      <c r="V47" s="168"/>
-      <c r="W47" s="168"/>
-      <c r="X47" s="168"/>
-      <c r="Y47" s="168"/>
+      <c r="V47" s="192"/>
+      <c r="W47" s="192"/>
+      <c r="X47" s="192"/>
+      <c r="Y47" s="192"/>
       <c r="Z47" s="134"/>
       <c r="AA47" s="134"/>
-      <c r="AB47" s="168"/>
-      <c r="AC47" s="168"/>
-      <c r="AD47" s="168"/>
+      <c r="AB47" s="192"/>
+      <c r="AC47" s="192"/>
+      <c r="AD47" s="192"/>
       <c r="AE47" s="134"/>
       <c r="AF47" s="134"/>
       <c r="AG47" s="134"/>
@@ -9270,18 +9270,18 @@
     <row r="48" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A48" s="69"/>
       <c r="D48" s="151"/>
-      <c r="R48" s="168"/>
-      <c r="S48" s="168"/>
-      <c r="T48" s="168"/>
-      <c r="U48" s="168"/>
-      <c r="V48" s="168"/>
+      <c r="R48" s="192"/>
+      <c r="S48" s="192"/>
+      <c r="T48" s="192"/>
+      <c r="U48" s="192"/>
+      <c r="V48" s="192"/>
       <c r="W48" s="134"/>
       <c r="X48" s="134"/>
-      <c r="Y48" s="168"/>
-      <c r="Z48" s="168"/>
-      <c r="AA48" s="168"/>
-      <c r="AB48" s="168"/>
-      <c r="AC48" s="168"/>
+      <c r="Y48" s="192"/>
+      <c r="Z48" s="192"/>
+      <c r="AA48" s="192"/>
+      <c r="AB48" s="192"/>
+      <c r="AC48" s="192"/>
       <c r="AL48" s="40"/>
       <c r="AS48" s="68"/>
       <c r="BH48" s="85"/>
@@ -9289,18 +9289,18 @@
     <row r="49" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A49" s="69"/>
       <c r="D49" s="151"/>
-      <c r="R49" s="168"/>
-      <c r="S49" s="168"/>
-      <c r="T49" s="168"/>
-      <c r="U49" s="168"/>
-      <c r="V49" s="168"/>
+      <c r="R49" s="192"/>
+      <c r="S49" s="192"/>
+      <c r="T49" s="192"/>
+      <c r="U49" s="192"/>
+      <c r="V49" s="192"/>
       <c r="W49" s="134"/>
       <c r="X49" s="134"/>
-      <c r="Y49" s="168"/>
-      <c r="Z49" s="168"/>
-      <c r="AA49" s="168"/>
-      <c r="AB49" s="168"/>
-      <c r="AC49" s="168"/>
+      <c r="Y49" s="192"/>
+      <c r="Z49" s="192"/>
+      <c r="AA49" s="192"/>
+      <c r="AB49" s="192"/>
+      <c r="AC49" s="192"/>
       <c r="AL49" s="40"/>
       <c r="AS49" s="68"/>
     </row>
@@ -9338,10 +9338,10 @@
     <row r="55" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A55" s="69"/>
       <c r="D55" s="151"/>
-      <c r="J55" s="191" t="s">
+      <c r="J55" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="K55" s="192"/>
+      <c r="K55" s="191"/>
       <c r="AL55" s="40"/>
       <c r="AS55" s="68"/>
     </row>
@@ -9420,9 +9420,13 @@
     <mergeCell ref="L45:O45"/>
     <mergeCell ref="Y48:AC49"/>
     <mergeCell ref="R48:V49"/>
+    <mergeCell ref="AB46:AD47"/>
+    <mergeCell ref="V46:Y47"/>
+    <mergeCell ref="Y44:AC45"/>
+    <mergeCell ref="N36:P36"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="K14:R14"/>
-    <mergeCell ref="R28:V29"/>
+    <mergeCell ref="Y28:AC29"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:P21"/>
@@ -9451,9 +9455,6 @@
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="AB46:AD47"/>
-    <mergeCell ref="V46:Y47"/>
-    <mergeCell ref="Y44:AC45"/>
     <mergeCell ref="AF36:AG36"/>
     <mergeCell ref="Q35:U35"/>
     <mergeCell ref="V35:Y35"/>
@@ -9467,7 +9468,6 @@
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="X36:Y36"/>
     <mergeCell ref="V36:W36"/>
-    <mergeCell ref="N36:P36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="AA41:AE42"/>
@@ -16741,7 +16741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63029EA3-83F6-4D40-BBC5-9474A2FBF5DA}">
   <dimension ref="A1:CC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
@@ -16872,31 +16872,31 @@
       <c r="AE2" s="247" t="s">
         <v>151</v>
       </c>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="261"/>
-      <c r="AH2" s="261"/>
-      <c r="AI2" s="261"/>
-      <c r="AJ2" s="261"/>
-      <c r="AK2" s="261"/>
-      <c r="AL2" s="261"/>
-      <c r="AM2" s="261"/>
+      <c r="AF2" s="263"/>
+      <c r="AG2" s="263"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="263"/>
+      <c r="AJ2" s="263"/>
+      <c r="AK2" s="263"/>
+      <c r="AL2" s="263"/>
+      <c r="AM2" s="263"/>
       <c r="AN2" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="AO2" s="261"/>
-      <c r="AP2" s="261"/>
-      <c r="AQ2" s="261"/>
-      <c r="AR2" s="261"/>
-      <c r="AS2" s="261"/>
-      <c r="AT2" s="261"/>
-      <c r="AU2" s="261"/>
-      <c r="AV2" s="261"/>
-      <c r="AW2" s="261"/>
-      <c r="AX2" s="261"/>
-      <c r="AY2" s="261"/>
-      <c r="AZ2" s="261"/>
-      <c r="BA2" s="261"/>
-      <c r="BB2" s="262"/>
+      <c r="AO2" s="263"/>
+      <c r="AP2" s="263"/>
+      <c r="AQ2" s="263"/>
+      <c r="AR2" s="263"/>
+      <c r="AS2" s="263"/>
+      <c r="AT2" s="263"/>
+      <c r="AU2" s="263"/>
+      <c r="AV2" s="263"/>
+      <c r="AW2" s="263"/>
+      <c r="AX2" s="263"/>
+      <c r="AY2" s="263"/>
+      <c r="AZ2" s="263"/>
+      <c r="BA2" s="263"/>
+      <c r="BB2" s="264"/>
     </row>
     <row r="3" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="235" t="s">
@@ -17043,10 +17043,10 @@
       <c r="P5" s="113"/>
       <c r="Q5" s="113"/>
       <c r="R5" s="114"/>
-      <c r="S5" s="263" t="s">
+      <c r="S5" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="264"/>
+      <c r="T5" s="262"/>
       <c r="U5" s="221" t="s">
         <v>209</v>
       </c>
@@ -17107,10 +17107,10 @@
       <c r="P6" s="110"/>
       <c r="Q6" s="110"/>
       <c r="R6" s="111"/>
-      <c r="S6" s="263" t="s">
+      <c r="S6" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="264"/>
+      <c r="T6" s="262"/>
       <c r="U6" s="221" t="s">
         <v>268</v>
       </c>
@@ -17171,10 +17171,10 @@
       <c r="P7" s="110"/>
       <c r="Q7" s="110"/>
       <c r="R7" s="111"/>
-      <c r="S7" s="263" t="s">
+      <c r="S7" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="264"/>
+      <c r="T7" s="262"/>
       <c r="U7" s="221"/>
       <c r="V7" s="222"/>
       <c r="W7" s="222"/>
@@ -17235,10 +17235,10 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="263" t="s">
+      <c r="S8" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="264"/>
+      <c r="T8" s="262"/>
       <c r="U8" s="221" t="s">
         <v>209</v>
       </c>
@@ -17297,10 +17297,10 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="263" t="s">
+      <c r="S9" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="264"/>
+      <c r="T9" s="262"/>
       <c r="U9" s="4" t="s">
         <v>177</v>
       </c>
@@ -17359,10 +17359,10 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="263" t="s">
+      <c r="S10" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="264"/>
+      <c r="T10" s="262"/>
       <c r="U10" s="4" t="s">
         <v>176</v>
       </c>
@@ -17421,10 +17421,10 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="263" t="s">
+      <c r="S11" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="264"/>
+      <c r="T11" s="262"/>
       <c r="U11" s="4" t="s">
         <v>176</v>
       </c>
@@ -17483,10 +17483,10 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="263" t="s">
+      <c r="S12" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="264"/>
+      <c r="T12" s="262"/>
       <c r="U12" s="94" t="s">
         <v>262</v>
       </c>
@@ -17547,10 +17547,10 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="263" t="s">
+      <c r="S13" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="T13" s="264"/>
+      <c r="T13" s="262"/>
       <c r="U13" s="94" t="s">
         <v>264</v>
       </c>
@@ -19324,6 +19324,16 @@
     <mergeCell ref="AN5:BB5"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AN17:BB17"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="S19:T19"/>
@@ -19355,16 +19365,6 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AN2:BB2"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:AD3"/>
@@ -19542,7 +19542,7 @@
       <c r="B3" s="270"/>
       <c r="C3" s="271">
         <f ca="1">NOW()</f>
-        <v>45450.676878356484</v>
+        <v>45453.365032986112</v>
       </c>
       <c r="D3" s="272"/>
       <c r="E3" s="272"/>
@@ -19608,7 +19608,7 @@
       <c r="B4" s="270"/>
       <c r="C4" s="271">
         <f ca="1">NOW()</f>
-        <v>45450.676878356484</v>
+        <v>45453.365032986112</v>
       </c>
       <c r="D4" s="272"/>
       <c r="E4" s="272"/>
